--- a/GRFOWeb/wwwroot/UploadExcel/Request_Master.xlsx
+++ b/GRFOWeb/wwwroot/UploadExcel/Request_Master.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">Request Source</t>
   </si>
@@ -62,10 +62,22 @@
     <t xml:space="preserve">CC Number</t>
   </si>
   <si>
-    <t xml:space="preserve">GRFO Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsfgfgdfg</t>
+    <t xml:space="preserve">Executive Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">586</t>
   </si>
 </sst>
 </file>
@@ -187,6 +199,116 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
